--- a/MethodDemos/output/statistics/cermine-AUTHOR_EMAILS.xlsx
+++ b/MethodDemos/output/statistics/cermine-AUTHOR_EMAILS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="178">
   <si>
     <t>TUW-137078</t>
   </si>
@@ -30,9 +30,9 @@
     <t>Mar Marcos --- marcos@icc.uji.es</t>
   </si>
   <si>
-    <t>2Annette ten Teije --- annette@cs.vu.nl
-2Frank van Harmelen --- frank.van.harmelen@cs.vu.nl
-2Mar Marcos --- marcos@icc.uji.es</t>
+    <t>Mar Marcos --- marcos@icc.uji.es
+Frank van Harmelen --- frank.van.harmelen@cs.vu.nl
+Annette ten Teije --- annette@cs.vu.nl</t>
   </si>
   <si>
     <t>TUW-138447</t>
@@ -87,18 +87,10 @@
 Marco Zapletal --- marco@cs.univie.ac.at</t>
   </si>
   <si>
-    <t>0Marco Zapletal --- marco@cs.univie.ac.at
-Michael Ilger --- ilger@ani.univie.ac.at</t>
-  </si>
-  <si>
     <t>TUW-140229</t>
   </si>
   <si>
     <t>Kinshuk --- kinshuk@ieee.org
-Sabine Graf --- graf@wit.tuwien.ac.at</t>
-  </si>
-  <si>
-    <t>1Kinshuk --- kinshuk@ieee.org
 Sabine Graf --- graf@wit.tuwien.ac.at</t>
   </si>
   <si>
@@ -142,11 +134,6 @@
 Taiyu Lin --- taiyu.lin@gmail.com</t>
   </si>
   <si>
-    <t>Sabine Graf --- sabine.graf@ieee.org
-1Kinshuk --- kinshuk@ieee.org
-2Taiyu Lin --- taiyu.lin@gmail.com</t>
-  </si>
-  <si>
     <t>TUW-141121</t>
   </si>
   <si>
@@ -189,9 +176,9 @@
 Guenter Kiechle --- guenter.kiechle@salzburgresearch.at</t>
   </si>
   <si>
-    <t>1Michel Gendreau --- michelg@crt.umontreal.ca
-Guenter Kiechle --- guenter.kiechle@salzburgresearch.at
-0Richard F. Hartl --- richard.hartlg@univie.ac.at</t>
+    <t>Michel Gendreau --- michelg@crt.umontreal.ca
+Richard F. Hartl --- richard.hartlg@univie.ac.at
+Guenter Kiechle --- guenter.kiechle@salzburgresearch.at</t>
   </si>
   <si>
     <t>TUW-172697</t>
@@ -201,7 +188,7 @@
   </si>
   <si>
     <t>Christoph Becker --- becker@ifs.tuwien.ac.at
-01Andreas Rauber --- rauber@ifs.tuwien.ac.at</t>
+Andreas Rauber --- rauber@ifs.tuwien.ac.at</t>
   </si>
   <si>
     <t>TUW-175428</t>
@@ -220,17 +207,17 @@
 Stefan Woltran --- woltran@dbai.tuwien.ac.at</t>
   </si>
   <si>
-    <t>0Stefan Woltran --- woltran@dbai.tuwien.ac.at
-1Hans Tompits --- tompits@kr.tuwien.ac.at
-Johannes Oetsch --- oetsch@kr.tuwien.ac.at
-0Martina Seidl --- seidl@big.tuwien.ac.at</t>
+    <t>Martina Seidl --- seidl@big.tuwien.ac.at
+Stefan Woltran --- woltran@dbai.tuwien.ac.at
+Hans Tompits --- tompits@kr.tuwien.ac.at
+Johannes Oetsch --- oetsch@kr.tuwien.ac.at</t>
   </si>
   <si>
     <t>TUW-179146</t>
   </si>
   <si>
     <t>Eva Ku¨ hn, Richard Mordinyi, --- {ek,rm,lk,cs}@complang.tuwien.ac.at
-0Sandford Bessler, Slobodanka Tomic --- {bessler, tomic}@ftw.at</t>
+Sandford Bessler, Slobodanka Tomic --- {bessler, tomic}@ftw.at</t>
   </si>
   <si>
     <t>TUW-180162</t>
@@ -239,9 +226,9 @@
     <t>Engin Kirda --- kirda@eurecom.fr</t>
   </si>
   <si>
-    <t>1Christopher Kruegel --- chris@cs.ucsb.edu
-Manuel Egele --- pizzaman@iseclab.org
-2Engin Kirda --- kirda@eurecom.fr</t>
+    <t>Christopher Kruegel --- chris@cs.ucsb.edu
+Engin Kirda --- kirda@eurecom.fr
+Manuel Egele --- pizzaman@iseclab.org</t>
   </si>
   <si>
     <t>TUW-181199</t>
@@ -251,10 +238,10 @@
   </si>
   <si>
     <t>Martin Gebser --- gebser@cs.uni-potsdam.de
-1Stefan Woltran --- woltran@dbai.tuwien.ac.at
-0Jo¨ rg Pu¨ hrer --- puehrer@kr.tuwien.ac.at
-1Torsten Schaub --- torsten@cs.uni-potsdam.de
-0Hans Tompits --- tompits@kr.tuwien.ac.at</t>
+Jo¨ rg Pu¨ hrer --- puehrer@kr.tuwien.ac.at
+Stefan Woltran --- woltran@dbai.tuwien.ac.at
+Torsten Schaub --- torsten@cs.uni-potsdam.de
+Hans Tompits --- tompits@kr.tuwien.ac.at</t>
   </si>
   <si>
     <t>TUW-182414</t>
@@ -264,10 +251,6 @@
 Andreas Rauber --- rauber@ifs.tuwien.ac.at</t>
   </si>
   <si>
-    <t>2Max Kaiser --- max.kaiser@onb.ac.at
-Andreas Rauber --- rauber@ifs.tuwien.ac.at</t>
-  </si>
-  <si>
     <t>TUW-182899</t>
   </si>
   <si>
@@ -294,12 +277,12 @@
 Zoe Robertson --- zoe.robertson@nhs.net</t>
   </si>
   <si>
-    <t>0Ann-Marie Hughes, Jane --- @soton.ac.uk
-5Penny Probert Smith, Nour --- nour.shublaq}@eng.ox.ac.uk
-1Stefan Rennick Egglestone, --- {sre,tar}@nott.ac.uk
-4Geraldine Fitzpatrick Anna Wilkinson, Sue Mawson --- geraldine.fitzpatrick@tuwien.ac.at Sheffield, S10 2BP, UK {A.J.Wilkinson, S.J.Mawson}@shu.ac.uk
+    <t>Ann-Marie Hughes, Jane --- @soton.ac.uk
+Stefan Rennick Egglestone, --- {sre,tar}@nott.ac.uk
+Thomas Nind, Ian Ricketts Zoe Robertson --- {rickets,tnind}@computing.dunde Barnsley S75 2EP e.ac.uk zoe.robertson@nhs.net
+Geraldine Fitzpatrick Anna Wilkinson, Sue Mawson --- geraldine.fitzpatrick@tuwien.ac.at Sheffield, S10 2BP, UK {A.J.Wilkinson, S.J.Mawson}@shu.ac.uk
 Madeline Balaam, Lesley --- G.McAllister} @sussex.ac.uk
-6Thomas Nind, Ian Ricketts Zoe Robertson --- {rickets,tnind}@computing.dunde Barnsley S75 2EP e.ac.uk zoe.robertson@nhs.net</t>
+Penny Probert Smith, Nour --- nour.shublaq}@eng.ox.ac.uk</t>
   </si>
   <si>
     <t>TUW-191715</t>
@@ -314,10 +297,10 @@
 E Fox --- fox@vt.edu</t>
   </si>
   <si>
-    <t>3D. Soergel --- dsoergel@buffalo.edu
-1C. Meghini --- carlo.meghini@isti.cnr.it
-4A. Rauber --- rauber@ifs.tuwien.ac.at
-1E. Fox --- fox@vt.edu</t>
+    <t>C. Meghini --- carlo.meghini@isti.cnr.it
+A. Rauber --- rauber@ifs.tuwien.ac.at
+E. Fox --- fox@vt.edu
+D. Soergel --- dsoergel@buffalo.edu</t>
   </si>
   <si>
     <t>TUW-192724</t>
@@ -327,7 +310,7 @@
 Justyna Patalas-Maliszewska --- j.patalas@iizp.uz.zgora.pl</t>
   </si>
   <si>
-    <t>1Irene Krebs --- krebs@iit.tu-cottbus.de</t>
+    <t>Irene Krebs --- krebs@iit.tu-cottbus.de</t>
   </si>
   <si>
     <t>TUW-194085</t>
@@ -336,8 +319,8 @@
     <t>TUW-194561</t>
   </si>
   <si>
-    <t>Bernhard Gramlich --- gramlich@logic.at
-0Felix Schernhammer --- felixs@logic.at</t>
+    <t>Felix Schernhammer --- felixs@logic.at
+Bernhard Gramlich --- gramlich@logic.at</t>
   </si>
   <si>
     <t>TUW-194660</t>
@@ -357,11 +340,6 @@
 Johannes Heurix --- heurix@ifs.tuwien.ac.at</t>
   </si>
   <si>
-    <t>Kresimir Kasal --- kkasal@sba-research.org
-0Johannes Heurix --- heurix@ifs.tuwien.ac.at
-1Thomas Neubauer --- neubauer@ifs.tuwien.ac.at</t>
-  </si>
-  <si>
     <t>TUW-198401</t>
   </si>
   <si>
@@ -394,8 +372,8 @@
     <t>Stefan Szeider --- stefan@szeider.net</t>
   </si>
   <si>
-    <t>0Stefan Szeider --- stefan@szeider.net
-1Anders Yeo --- andersg@cs.rhul.ac.uk</t>
+    <t>Stefan Szeider --- stefan@szeider.net
+Anders Yeo --- andersg@cs.rhul.ac.uk</t>
   </si>
   <si>
     <t>TUW-200950</t>
@@ -406,12 +384,12 @@
 Carsten Thomassen --- C.Thomassen@mat.dtu.dk</t>
   </si>
   <si>
-    <t>4Fedor V. Fomin --- fedor.fomin@ii.uib.no
-1Frances Rosamond --- frances.rosamond@newcastle.edu.au
-0Carsten Thomassen --- C.Thomassen@mat.dtu.dk
-1Daniel Lokshtanov --- Daniel.Lokshtanov@ii.uib.no
-12Stefan Szeider --- stefan.szeider@durham.ac.uk
-4Saket Saurabh --- saket@imsc.res.in
+    <t>Daniel Lokshtanov --- Daniel.Lokshtanov@ii.uib.no
+Stefan Szeider --- stefan.szeider@durham.ac.uk
+Saket Saurabh --- saket@imsc.res.in
+Frances Rosamond --- frances.rosamond@newcastle.edu.au
+Carsten Thomassen --- C.Thomassen@mat.dtu.dk
+Fedor V. Fomin --- fedor.fomin@ii.uib.no
 Michael Fellows --- michael.fellows@newcastle.edu.au</t>
   </si>
   <si>
@@ -421,22 +399,22 @@
     <t>TUW-201066</t>
   </si>
   <si>
-    <t>0Gu¨nther R. Raidl --- raidl@ads.tuwien.ac.at
-0Mario Ruthmair --- ruthmair@ads.tuwien.ac.at</t>
+    <t>Mario Ruthmair --- ruthmair@ads.tuwien.ac.at
+Gu¨nther R. Raidl --- raidl@ads.tuwien.ac.at</t>
   </si>
   <si>
     <t>TUW-201160</t>
   </si>
   <si>
-    <t>0Gu¨nther R. Raidl --- raidl@ads.tuwien.ac.at
+    <t>Gu¨nther R. Raidl --- raidl@ads.tuwien.ac.at
 Markus Leitner --- leitner@ads.tuwien.ac.at</t>
   </si>
   <si>
     <t>TUW-201167</t>
   </si>
   <si>
-    <t>0Gu¨nther R. Raidl --- raidlg@ads.tuwien.ac.at
-0Andreas Hubmer --- andreas.hubmer@tuwien.ac.at</t>
+    <t>Andreas Hubmer --- andreas.hubmer@tuwien.ac.at
+Gu¨nther R. Raidl --- raidlg@ads.tuwien.ac.at</t>
   </si>
   <si>
     <t>TUW-201821</t>
@@ -507,18 +485,13 @@
 Manfred Del Fabro --- manfred@itec.aau.at</t>
   </si>
   <si>
-    <t>2Maia Zaharieva --- zaharieva@cs.univie.ac.at
-Matthias Zeppelzauer --- mzz@ims.tuwien.ac.at
-1Manfred Del Fabro --- manfred@itec.aau.at</t>
-  </si>
-  <si>
     <t>TUW-223973</t>
   </si>
   <si>
     <t>TUW-225252</t>
   </si>
   <si>
-    <t>01Gunther R. Raidl --- raidlg@ads.tuwien.ac.at</t>
+    <t>Gunther R. Raidl --- raidlg@ads.tuwien.ac.at</t>
   </si>
   <si>
     <t>TUW-226000</t>
@@ -545,7 +518,7 @@
     <t>Johannes Gärtner --- gaertner@ximes.com</t>
   </si>
   <si>
-    <t>0Johannes Ga¨ rtner --- gaertner@ximes.com</t>
+    <t>Johannes Ga¨ rtner --- gaertner@ximes.com</t>
   </si>
   <si>
     <t>TUW-233657</t>
@@ -557,12 +530,6 @@
 Wolfgang Aigner --- wolfgang.aigner@fhstp.ac.at</t>
   </si>
   <si>
-    <t>Tim Lammarsch --- lammarsch@ifs.tuwien.ac.at
-0123Wolfgang Aigner --- wolfgang.aigner@fhstp.ac.at
-0123Silvia Miksch --- miksch@ifs.tuwien.ac.at
-0123Alexander Rind --- alexander.rind@fhstp.ac.at</t>
-  </si>
-  <si>
     <t>TUW-236063</t>
   </si>
   <si>
@@ -570,10 +537,6 @@
   </si>
   <si>
     <t>Monika Di Angelo --- monika.diangelo@tuwien.ac.at
-Markus Brunner --- markus.a.brunner@gmail.com</t>
-  </si>
-  <si>
-    <t>0Monika Di Angelo --- monika.diangelo@tuwien.ac.at
 Markus Brunner --- markus.a.brunner@gmail.com</t>
   </si>
   <si>
@@ -588,11 +551,6 @@
 Marco Calautti --- calautti@dimes.unical.it</t>
   </si>
   <si>
-    <t>0Georg Gottlob --- georg.gottlob@cs.ox.ac.uk
-1Andreas Pieris --- pieris@dbai.tuwien.ac.at
-Marco Calautti --- calautti@dimes.unical.it</t>
-  </si>
-  <si>
     <t>TUW-245336</t>
   </si>
   <si>
@@ -604,7 +562,7 @@
 Ion Piroi --- i.piroi@uem.ro</t>
   </si>
   <si>
-    <t>0Ion Piroi --- piroi@ifs.tuwien.ac.at
+    <t>Ion Piroi --- piroi@ifs.tuwien.ac.at
 Elisabeta Spunei --- e.spunei@uem.ro</t>
   </si>
   <si>
@@ -616,11 +574,6 @@
 Andreas Pieris --- pieris@dbai.tuwien.ac.at</t>
   </si>
   <si>
-    <t>1Andreas Pieris --- pieris@dbai.tuwien.ac.at
-0Marco Manna --- manna@mat.unical.it
-Georg Gottlob --- georg.gottlob@cs.ox.ac.uk</t>
-  </si>
-  <si>
     <t>TUW-247741</t>
   </si>
   <si>
@@ -639,18 +592,18 @@
   <si>
     <t>Maia Zaharieva --- maia.zaharieva@univie.ac.at
 Bogdan Boteanu --- bboteanu@alpha.imag.pub.ro
-Alexandru Lucian Gînsc --- alexandru.ginsca@cea.fr
+Alexandru Lucian Gînscă --- alexandru.ginsca@cea.fr
 Henning Müller --- henning.mueller@hevs.ch
 Bogdan Ionescu --- bionescu@alpha.imag.pub.ro
 Mihai Lupu --- lupu@ifs.tuwien.ac.at</t>
   </si>
   <si>
-    <t>3Henning Müller --- henning.mueller@hevs.ch
-0Mihai Lupu --- lupu@ifs.tuwien.ac.at
-4Maia Zaharieva --- maia.zaharieva@univie.ac.at
-2Bogdan Boteanu --- bboteanu@alpha.imag.pub.ro
-2Alexandru Lucian Gînsca˘ --- alexandru.ginsca@cea.fr
-Bogdan Ionescu --- bionescu@alpha.imag.pub.ro</t>
+    <t>Alexandru Lucian Gînsca˘ --- alexandru.ginsca@cea.fr
+Maia Zaharieva --- maia.zaharieva@univie.ac.at
+Bogdan Boteanu --- bboteanu@alpha.imag.pub.ro
+Henning Müller --- henning.mueller@hevs.ch
+Bogdan Ionescu --- bionescu@alpha.imag.pub.ro
+Mihai Lupu --- lupu@ifs.tuwien.ac.at</t>
   </si>
   <si>
     <t>TUW-255712</t>
@@ -676,7 +629,7 @@
   </si>
   <si>
     <t>Jean D. Hallewell Haslwanter --- jean.hallewell@fh-wels.at
-2Geraldine Fitzpatrick --- geraldine.fitzpatrick@tuwien.ac.at</t>
+Geraldine Fitzpatrick --- geraldine.fitzpatrick@tuwien.ac.at</t>
   </si>
 </sst>
 </file>
@@ -3432,7 +3385,7 @@
     <col min="3" max="3" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="75.3984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="137.4140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="136.30078125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="19.921875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="14.31640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="4.9296875" customWidth="true" bestFit="true"/>
@@ -3774,7 +3727,7 @@
         <v>22</v>
       </c>
       <c r="F12" t="s" s="105">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n" s="106">
         <v>1.0</v>
@@ -3788,7 +3741,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="109">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="110">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140229.pdf")</f>
@@ -3800,10 +3753,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140229-xstream.xml")</f>
       </c>
       <c r="E13" t="s" s="113">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s" s="114">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n" s="115">
         <v>1.0</v>
@@ -3817,7 +3770,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="118">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="119">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140253.pdf")</f>
@@ -3829,10 +3782,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140253-xstream.xml")</f>
       </c>
       <c r="E14" t="s" s="122">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s" s="123">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" t="n" s="124">
         <v>1.0</v>
@@ -3846,7 +3799,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="127">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="128">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140308.pdf")</f>
@@ -3858,10 +3811,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140308-xstream.xml")</f>
       </c>
       <c r="E15" t="s" s="131">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s" s="132">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" t="n" s="133">
         <v>1.0</v>
@@ -3875,7 +3828,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="136">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="137">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140533.pdf")</f>
@@ -3904,7 +3857,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="145">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="146">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140867.pdf")</f>
@@ -3933,7 +3886,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="154">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="155">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140895.pdf")</f>
@@ -3962,7 +3915,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="163">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="164">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140983.pdf")</f>
@@ -3974,7 +3927,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-140983-xstream.xml")</f>
       </c>
       <c r="E19" t="s" s="167">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s" s="168">
         <v>7</v>
@@ -3991,7 +3944,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="172">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="173">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141024.pdf")</f>
@@ -4020,7 +3973,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="181">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="182">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141065.pdf")</f>
@@ -4032,10 +3985,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141065-xstream.xml")</f>
       </c>
       <c r="E21" t="s" s="185">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s" s="186">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G21" t="n" s="187">
         <v>1.0</v>
@@ -4049,7 +4002,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="190">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="191">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141121.pdf")</f>
@@ -4061,7 +4014,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141121-xstream.xml")</f>
       </c>
       <c r="E22" t="s" s="194">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s" s="195">
         <v>7</v>
@@ -4078,7 +4031,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="199">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B23" s="200">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141140.pdf")</f>
@@ -4107,7 +4060,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="208">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B24" s="209">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141336.pdf")</f>
@@ -4119,10 +4072,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-141336-xstream.xml")</f>
       </c>
       <c r="E24" t="s" s="212">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s" s="213">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G24" t="n" s="214">
         <v>0.0</v>
@@ -4136,7 +4089,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="217">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B25" s="218">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141618.pdf")</f>
@@ -4165,7 +4118,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="226">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B26" s="227">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141758.pdf")</f>
@@ -4194,7 +4147,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="235">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" s="236">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-168222.pdf")</f>
@@ -4206,7 +4159,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-168222-xstream.xml")</f>
       </c>
       <c r="E27" t="s" s="239">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s" s="240">
         <v>7</v>
@@ -4223,7 +4176,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="244">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" s="245">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-168482.pdf")</f>
@@ -4252,7 +4205,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="253">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29" s="254">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-169511.pdf")</f>
@@ -4264,10 +4217,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-169511-xstream.xml")</f>
       </c>
       <c r="E29" t="s" s="257">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s" s="258">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G29" t="n" s="259">
         <v>0.67</v>
@@ -4281,7 +4234,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="262">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B30" s="263">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-172697.pdf")</f>
@@ -4310,7 +4263,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="271">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31" s="272">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-174216.pdf")</f>
@@ -4325,7 +4278,7 @@
         <v>7</v>
       </c>
       <c r="F31" t="s" s="276">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G31" t="n" s="277">
         <v>0.0</v>
@@ -4339,7 +4292,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="280">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B32" s="281">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-175428.pdf")</f>
@@ -4368,7 +4321,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="289">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B33" s="290">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-176087.pdf")</f>
@@ -4380,7 +4333,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-176087-xstream.xml")</f>
       </c>
       <c r="E33" t="s" s="293">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s" s="294">
         <v>7</v>
@@ -4397,7 +4350,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="298">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B34" s="299">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-177140.pdf")</f>
@@ -4409,10 +4362,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-177140-xstream.xml")</f>
       </c>
       <c r="E34" t="s" s="302">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s" s="303">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G34" t="n" s="304">
         <v>0.5</v>
@@ -4426,7 +4379,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="307">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B35" s="308">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-179146.pdf")</f>
@@ -4441,7 +4394,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="s" s="312">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G35" t="n" s="313">
         <v>0.0</v>
@@ -4455,7 +4408,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="316">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B36" s="317">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-180162.pdf")</f>
@@ -4467,10 +4420,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-180162-xstream.xml")</f>
       </c>
       <c r="E36" t="s" s="320">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s" s="321">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G36" t="n" s="322">
         <v>0.33</v>
@@ -4484,7 +4437,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="325">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B37" s="326">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-181199.pdf")</f>
@@ -4496,10 +4449,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-181199-xstream.xml")</f>
       </c>
       <c r="E37" t="s" s="329">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F37" t="s" s="330">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G37" t="n" s="331">
         <v>0.2</v>
@@ -4513,7 +4466,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="334">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B38" s="335">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-182414.pdf")</f>
@@ -4525,10 +4478,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-182414-xstream.xml")</f>
       </c>
       <c r="E38" t="s" s="338">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s" s="339">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G38" t="n" s="340">
         <v>1.0</v>
@@ -4542,7 +4495,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="343">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B39" s="344">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-182899.pdf")</f>
@@ -4554,10 +4507,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-182899-xstream.xml")</f>
       </c>
       <c r="E39" t="s" s="347">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s" s="348">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G39" t="n" s="349">
         <v>1.0</v>
@@ -4571,7 +4524,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="352">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B40" s="353">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-185321.pdf")</f>
@@ -4600,7 +4553,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="361">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B41" s="362">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-185441.pdf")</f>
@@ -4629,7 +4582,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="370">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B42" s="371">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-186227.pdf")</f>
@@ -4658,7 +4611,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="379">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B43" s="380">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-189842.pdf")</f>
@@ -4670,10 +4623,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-189842-xstream.xml")</f>
       </c>
       <c r="E43" t="s" s="383">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="384">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G43" t="n" s="385">
         <v>0.0</v>
@@ -4687,7 +4640,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="388">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B44" s="389">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-191715.pdf")</f>
@@ -4716,7 +4669,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="397">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B45" s="398">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-191977.pdf")</f>
@@ -4728,10 +4681,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-191977-xstream.xml")</f>
       </c>
       <c r="E45" t="s" s="401">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s" s="402">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G45" t="n" s="403">
         <v>1.0</v>
@@ -4745,7 +4698,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="406">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B46" s="407">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-192724.pdf")</f>
@@ -4757,10 +4710,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-192724-xstream.xml")</f>
       </c>
       <c r="E46" t="s" s="410">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s" s="411">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G46" t="n" s="412">
         <v>1.0</v>
@@ -4774,7 +4727,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="415">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B47" s="416">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194085.pdf")</f>
@@ -4803,7 +4756,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="424">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B48" s="425">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194561.pdf")</f>
@@ -4818,7 +4771,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="s" s="429">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G48" t="n" s="430">
         <v>0.0</v>
@@ -4832,7 +4785,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="433">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B49" s="434">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194660.pdf")</f>
@@ -4861,7 +4814,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="442">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B50" s="443">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-197422.pdf")</f>
@@ -4890,7 +4843,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="451">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B51" s="452">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-197852.pdf")</f>
@@ -4919,7 +4872,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="460">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B52" s="461">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198400.pdf")</f>
@@ -4931,10 +4884,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198400-xstream.xml")</f>
       </c>
       <c r="E52" t="s" s="464">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s" s="465">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G52" t="n" s="466">
         <v>1.0</v>
@@ -4948,7 +4901,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="469">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B53" s="470">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198401.pdf")</f>
@@ -4960,7 +4913,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198401-xstream.xml")</f>
       </c>
       <c r="E53" t="s" s="473">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s" s="474">
         <v>7</v>
@@ -4977,7 +4930,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="478">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B54" s="479">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198405.pdf")</f>
@@ -4989,7 +4942,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198405-xstream.xml")</f>
       </c>
       <c r="E54" t="s" s="482">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s" s="483">
         <v>7</v>
@@ -5006,7 +4959,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="487">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B55" s="488">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198408.pdf")</f>
@@ -5018,7 +4971,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198408-xstream.xml")</f>
       </c>
       <c r="E55" t="s" s="491">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s" s="492">
         <v>7</v>
@@ -5035,7 +4988,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="496">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B56" s="497">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200745.pdf")</f>
@@ -5064,7 +5017,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="505">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B57" s="506">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200748.pdf")</f>
@@ -5093,7 +5046,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="514">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B58" s="515">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200948.pdf")</f>
@@ -5105,10 +5058,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200948-xstream.xml")</f>
       </c>
       <c r="E58" t="s" s="518">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s" s="519">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G58" t="n" s="520">
         <v>0.5</v>
@@ -5122,7 +5075,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="523">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B59" s="524">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200950.pdf")</f>
@@ -5134,10 +5087,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200950-xstream.xml")</f>
       </c>
       <c r="E59" t="s" s="527">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F59" t="s" s="528">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G59" t="n" s="529">
         <v>0.43</v>
@@ -5151,7 +5104,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="532">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B60" s="533">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200959.pdf")</f>
@@ -5180,7 +5133,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="541">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B61" s="542">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201066.pdf")</f>
@@ -5195,7 +5148,7 @@
         <v>7</v>
       </c>
       <c r="F61" t="s" s="546">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G61" t="n" s="547">
         <v>0.0</v>
@@ -5209,7 +5162,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="550">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B62" s="551">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201160.pdf")</f>
@@ -5224,7 +5177,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="s" s="555">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G62" t="n" s="556">
         <v>0.0</v>
@@ -5238,7 +5191,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="559">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B63" s="560">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201167.pdf")</f>
@@ -5253,7 +5206,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="s" s="564">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G63" t="n" s="565">
         <v>0.0</v>
@@ -5267,7 +5220,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="568">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B64" s="569">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201821.pdf")</f>
@@ -5279,10 +5232,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-201821-xstream.xml")</f>
       </c>
       <c r="E64" t="s" s="572">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F64" t="s" s="573">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G64" t="n" s="574">
         <v>1.0</v>
@@ -5296,7 +5249,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="577">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B65" s="578">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-202034.pdf")</f>
@@ -5325,7 +5278,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="586">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B66" s="587">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-202824.pdf")</f>
@@ -5337,10 +5290,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-202824-xstream.xml")</f>
       </c>
       <c r="E66" t="s" s="590">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F66" t="s" s="591">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G66" t="n" s="592">
         <v>1.0</v>
@@ -5354,7 +5307,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="595">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B67" s="596">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203409.pdf")</f>
@@ -5369,7 +5322,7 @@
         <v>7</v>
       </c>
       <c r="F67" t="s" s="600">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G67" t="n" s="601">
         <v>0.0</v>
@@ -5383,7 +5336,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="604">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B68" s="605">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203924.pdf")</f>
@@ -5412,7 +5365,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="613">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B69" s="614">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-204724.pdf")</f>
@@ -5424,10 +5377,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-204724-xstream.xml")</f>
       </c>
       <c r="E69" t="s" s="617">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s" s="618">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G69" t="n" s="619">
         <v>0.0</v>
@@ -5441,7 +5394,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="622">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B70" s="623">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205557.pdf")</f>
@@ -5470,7 +5423,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="631">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B71" s="632">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205933.pdf")</f>
@@ -5499,7 +5452,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="640">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B72" s="641">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-213513.pdf")</f>
@@ -5511,10 +5464,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-213513-xstream.xml")</f>
       </c>
       <c r="E72" t="s" s="644">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s" s="645">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G72" t="n" s="646">
         <v>1.0</v>
@@ -5528,7 +5481,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="649">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B73" s="650">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-216744.pdf")</f>
@@ -5557,7 +5510,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="658">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B74" s="659">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217690.pdf")</f>
@@ -5586,7 +5539,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="667">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B75" s="668">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217971.pdf")</f>
@@ -5601,7 +5554,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="s" s="672">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G75" t="n" s="673">
         <v>0.0</v>
@@ -5615,7 +5568,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="676">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B76" s="677">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-221215.pdf")</f>
@@ -5644,7 +5597,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="685">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B77" s="686">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223906.pdf")</f>
@@ -5656,10 +5609,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-223906-xstream.xml")</f>
       </c>
       <c r="E77" t="s" s="689">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F77" t="s" s="690">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G77" t="n" s="691">
         <v>1.0</v>
@@ -5673,7 +5626,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="694">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B78" s="695">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223973.pdf")</f>
@@ -5702,7 +5655,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="703">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B79" s="704">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-225252.pdf")</f>
@@ -5717,7 +5670,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="s" s="708">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G79" t="n" s="709">
         <v>0.0</v>
@@ -5731,7 +5684,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="712">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B80" s="713">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226000.pdf")</f>
@@ -5746,7 +5699,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="s" s="717">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G80" t="n" s="718">
         <v>0.0</v>
@@ -5760,7 +5713,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="721">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B81" s="722">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226016.pdf")</f>
@@ -5789,7 +5742,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="730">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B82" s="731">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-228620.pdf")</f>
@@ -5801,10 +5754,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-228620-xstream.xml")</f>
       </c>
       <c r="E82" t="s" s="734">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F82" t="s" s="735">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G82" t="n" s="736">
         <v>1.0</v>
@@ -5818,7 +5771,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="739">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B83" s="740">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-231707.pdf")</f>
@@ -5847,7 +5800,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="748">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B84" s="749">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233317.pdf")</f>
@@ -5859,10 +5812,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-233317-xstream.xml")</f>
       </c>
       <c r="E84" t="s" s="752">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F84" t="s" s="753">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G84" t="n" s="754">
         <v>0.0</v>
@@ -5876,7 +5829,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="757">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B85" s="758">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233657.pdf")</f>
@@ -5888,10 +5841,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-233657-xstream.xml")</f>
       </c>
       <c r="E85" t="s" s="761">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F85" t="s" s="762">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G85" t="n" s="763">
         <v>1.0</v>
@@ -5905,7 +5858,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="766">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B86" s="767">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236063.pdf")</f>
@@ -5934,7 +5887,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="775">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B87" s="776">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236120.pdf")</f>
@@ -5946,10 +5899,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-236120-xstream.xml")</f>
       </c>
       <c r="E87" t="s" s="779">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F87" t="s" s="780">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G87" t="n" s="781">
         <v>1.0</v>
@@ -5963,7 +5916,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="784">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B88" s="785">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-237297.pdf")</f>
@@ -5992,7 +5945,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="793">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B89" s="794">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-240858.pdf")</f>
@@ -6004,10 +5957,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-240858-xstream.xml")</f>
       </c>
       <c r="E89" t="s" s="797">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F89" t="s" s="798">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G89" t="n" s="799">
         <v>1.0</v>
@@ -6021,7 +5974,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="802">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B90" s="803">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245336.pdf")</f>
@@ -6050,7 +6003,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="811">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B91" s="812">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245799.pdf")</f>
@@ -6062,10 +6015,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-245799-xstream.xml")</f>
       </c>
       <c r="E91" t="s" s="815">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F91" t="s" s="816">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G91" t="n" s="817">
         <v>0.5</v>
@@ -6079,7 +6032,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="820">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B92" s="821">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247301.pdf")</f>
@@ -6091,10 +6044,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-247301-xstream.xml")</f>
       </c>
       <c r="E92" t="s" s="824">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F92" t="s" s="825">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G92" t="n" s="826">
         <v>1.0</v>
@@ -6108,7 +6061,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="829">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B93" s="830">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247741.pdf")</f>
@@ -6137,7 +6090,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="838">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B94" s="839">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247743.pdf")</f>
@@ -6166,7 +6119,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="847">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B95" s="848">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-251544.pdf")</f>
@@ -6178,10 +6131,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-251544-xstream.xml")</f>
       </c>
       <c r="E95" t="s" s="851">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F95" t="s" s="852">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G95" t="n" s="853">
         <v>1.0</v>
@@ -6195,7 +6148,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="856">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B96" s="857">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-252847.pdf")</f>
@@ -6207,10 +6160,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-252847-xstream.xml")</f>
       </c>
       <c r="E96" t="s" s="860">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F96" t="s" s="861">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G96" t="n" s="862">
         <v>0.83</v>
@@ -6224,7 +6177,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="865">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B97" s="866">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-255712.pdf")</f>
@@ -6253,7 +6206,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="874">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B98" s="875">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-256654.pdf")</f>
@@ -6265,7 +6218,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-256654-xstream.xml")</f>
       </c>
       <c r="E98" t="s" s="878">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F98" t="s" s="879">
         <v>7</v>
@@ -6282,7 +6235,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="883">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B99" s="884">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257397.pdf")</f>
@@ -6294,10 +6247,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-257397-xstream.xml")</f>
       </c>
       <c r="E99" t="s" s="887">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F99" t="s" s="888">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G99" t="n" s="889">
         <v>1.0</v>
@@ -6311,7 +6264,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="892">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B100" s="893">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257870.pdf")</f>
@@ -6323,10 +6276,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-257870-xstream.xml")</f>
       </c>
       <c r="E100" t="s" s="896">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F100" t="s" s="897">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G100" t="n" s="898">
         <v>1.0</v>

--- a/MethodDemos/output/statistics/cermine-AUTHOR_EMAILS.xlsx
+++ b/MethodDemos/output/statistics/cermine-AUTHOR_EMAILS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="177">
   <si>
     <t>TUW-137078</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>TUW-180162</t>
-  </si>
-  <si>
-    <t>Engin Kirda --- kirda@eurecom.fr</t>
   </si>
   <si>
     <t>Christopher Kruegel --- chris@cs.ucsb.edu
@@ -4423,21 +4420,21 @@
         <v>63</v>
       </c>
       <c r="F36" t="s" s="321">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" t="n" s="322">
-        <v>0.33</v>
+        <v>1.0</v>
       </c>
       <c r="H36" t="n" s="323">
         <v>1.0</v>
       </c>
       <c r="I36" t="n" s="324">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="325">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="326">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-181199.pdf")</f>
@@ -4449,10 +4446,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-181199-xstream.xml")</f>
       </c>
       <c r="E37" t="s" s="329">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s" s="330">
         <v>66</v>
-      </c>
-      <c r="F37" t="s" s="330">
-        <v>67</v>
       </c>
       <c r="G37" t="n" s="331">
         <v>0.2</v>
@@ -4466,7 +4463,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="334">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="335">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-182414.pdf")</f>
@@ -4478,10 +4475,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-182414-xstream.xml")</f>
       </c>
       <c r="E38" t="s" s="338">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F38" t="s" s="339">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" t="n" s="340">
         <v>1.0</v>
@@ -4495,7 +4492,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="343">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="344">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-182899.pdf")</f>
@@ -4507,10 +4504,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-182899-xstream.xml")</f>
       </c>
       <c r="E39" t="s" s="347">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s" s="348">
         <v>71</v>
-      </c>
-      <c r="F39" t="s" s="348">
-        <v>72</v>
       </c>
       <c r="G39" t="n" s="349">
         <v>1.0</v>
@@ -4524,7 +4521,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="352">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="353">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-185321.pdf")</f>
@@ -4553,7 +4550,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="361">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" s="362">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-185441.pdf")</f>
@@ -4582,7 +4579,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="370">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="371">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-186227.pdf")</f>
@@ -4611,7 +4608,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="379">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="380">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-189842.pdf")</f>
@@ -4623,10 +4620,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-189842-xstream.xml")</f>
       </c>
       <c r="E43" t="s" s="383">
+        <v>76</v>
+      </c>
+      <c r="F43" t="s" s="384">
         <v>77</v>
-      </c>
-      <c r="F43" t="s" s="384">
-        <v>78</v>
       </c>
       <c r="G43" t="n" s="385">
         <v>0.0</v>
@@ -4640,7 +4637,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="388">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="389">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-191715.pdf")</f>
@@ -4669,7 +4666,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="397">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="398">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-191977.pdf")</f>
@@ -4681,10 +4678,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-191977-xstream.xml")</f>
       </c>
       <c r="E45" t="s" s="401">
+        <v>80</v>
+      </c>
+      <c r="F45" t="s" s="402">
         <v>81</v>
-      </c>
-      <c r="F45" t="s" s="402">
-        <v>82</v>
       </c>
       <c r="G45" t="n" s="403">
         <v>1.0</v>
@@ -4698,7 +4695,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="406">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="407">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-192724.pdf")</f>
@@ -4710,10 +4707,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-192724-xstream.xml")</f>
       </c>
       <c r="E46" t="s" s="410">
+        <v>83</v>
+      </c>
+      <c r="F46" t="s" s="411">
         <v>84</v>
-      </c>
-      <c r="F46" t="s" s="411">
-        <v>85</v>
       </c>
       <c r="G46" t="n" s="412">
         <v>1.0</v>
@@ -4727,7 +4724,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="415">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" s="416">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194085.pdf")</f>
@@ -4756,7 +4753,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="424">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="425">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194561.pdf")</f>
@@ -4771,7 +4768,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="s" s="429">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G48" t="n" s="430">
         <v>0.0</v>
@@ -4785,7 +4782,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="433">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="434">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194660.pdf")</f>
@@ -4814,7 +4811,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="442">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="443">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-197422.pdf")</f>
@@ -4843,7 +4840,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="451">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" s="452">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-197852.pdf")</f>
@@ -4872,7 +4869,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="460">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52" s="461">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198400.pdf")</f>
@@ -4884,10 +4881,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198400-xstream.xml")</f>
       </c>
       <c r="E52" t="s" s="464">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s" s="465">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G52" t="n" s="466">
         <v>1.0</v>
@@ -4901,7 +4898,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="469">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B53" s="470">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198401.pdf")</f>
@@ -4913,7 +4910,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198401-xstream.xml")</f>
       </c>
       <c r="E53" t="s" s="473">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F53" t="s" s="474">
         <v>7</v>
@@ -4930,7 +4927,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="478">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" s="479">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198405.pdf")</f>
@@ -4942,7 +4939,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198405-xstream.xml")</f>
       </c>
       <c r="E54" t="s" s="482">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F54" t="s" s="483">
         <v>7</v>
@@ -4959,7 +4956,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="487">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B55" s="488">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198408.pdf")</f>
@@ -4971,7 +4968,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-198408-xstream.xml")</f>
       </c>
       <c r="E55" t="s" s="491">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F55" t="s" s="492">
         <v>7</v>
@@ -4988,7 +4985,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="496">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="497">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200745.pdf")</f>
@@ -5017,7 +5014,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="505">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="506">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200748.pdf")</f>
@@ -5046,7 +5043,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="514">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B58" s="515">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200948.pdf")</f>
@@ -5058,10 +5055,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200948-xstream.xml")</f>
       </c>
       <c r="E58" t="s" s="518">
+        <v>102</v>
+      </c>
+      <c r="F58" t="s" s="519">
         <v>103</v>
-      </c>
-      <c r="F58" t="s" s="519">
-        <v>104</v>
       </c>
       <c r="G58" t="n" s="520">
         <v>0.5</v>
@@ -5075,7 +5072,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="523">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B59" s="524">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200950.pdf")</f>
@@ -5087,10 +5084,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-200950-xstream.xml")</f>
       </c>
       <c r="E59" t="s" s="527">
+        <v>105</v>
+      </c>
+      <c r="F59" t="s" s="528">
         <v>106</v>
-      </c>
-      <c r="F59" t="s" s="528">
-        <v>107</v>
       </c>
       <c r="G59" t="n" s="529">
         <v>0.43</v>
@@ -5104,7 +5101,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="532">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B60" s="533">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200959.pdf")</f>
@@ -5133,7 +5130,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="541">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B61" s="542">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201066.pdf")</f>
@@ -5148,7 +5145,7 @@
         <v>7</v>
       </c>
       <c r="F61" t="s" s="546">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G61" t="n" s="547">
         <v>0.0</v>
@@ -5162,7 +5159,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="550">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B62" s="551">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201160.pdf")</f>
@@ -5177,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="s" s="555">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G62" t="n" s="556">
         <v>0.0</v>
@@ -5191,7 +5188,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="559">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" s="560">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201167.pdf")</f>
@@ -5206,7 +5203,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="s" s="564">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G63" t="n" s="565">
         <v>0.0</v>
@@ -5220,7 +5217,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="568">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B64" s="569">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201821.pdf")</f>
@@ -5232,10 +5229,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-201821-xstream.xml")</f>
       </c>
       <c r="E64" t="s" s="572">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F64" t="s" s="573">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G64" t="n" s="574">
         <v>1.0</v>
@@ -5249,7 +5246,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="577">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B65" s="578">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-202034.pdf")</f>
@@ -5278,7 +5275,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="586">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B66" s="587">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-202824.pdf")</f>
@@ -5290,10 +5287,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-202824-xstream.xml")</f>
       </c>
       <c r="E66" t="s" s="590">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F66" t="s" s="591">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G66" t="n" s="592">
         <v>1.0</v>
@@ -5307,7 +5304,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="595">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" s="596">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203409.pdf")</f>
@@ -5322,7 +5319,7 @@
         <v>7</v>
       </c>
       <c r="F67" t="s" s="600">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G67" t="n" s="601">
         <v>0.0</v>
@@ -5336,7 +5333,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="604">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B68" s="605">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203924.pdf")</f>
@@ -5365,7 +5362,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="613">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B69" s="614">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-204724.pdf")</f>
@@ -5377,10 +5374,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-204724-xstream.xml")</f>
       </c>
       <c r="E69" t="s" s="617">
+        <v>123</v>
+      </c>
+      <c r="F69" t="s" s="618">
         <v>124</v>
-      </c>
-      <c r="F69" t="s" s="618">
-        <v>125</v>
       </c>
       <c r="G69" t="n" s="619">
         <v>0.0</v>
@@ -5394,7 +5391,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="622">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B70" s="623">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205557.pdf")</f>
@@ -5423,7 +5420,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="631">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B71" s="632">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205933.pdf")</f>
@@ -5452,7 +5449,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="640">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B72" s="641">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-213513.pdf")</f>
@@ -5464,10 +5461,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-213513-xstream.xml")</f>
       </c>
       <c r="E72" t="s" s="644">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F72" t="s" s="645">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G72" t="n" s="646">
         <v>1.0</v>
@@ -5481,7 +5478,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="649">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B73" s="650">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-216744.pdf")</f>
@@ -5510,7 +5507,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="658">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" s="659">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217690.pdf")</f>
@@ -5539,7 +5536,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="667">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B75" s="668">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217971.pdf")</f>
@@ -5554,7 +5551,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="s" s="672">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G75" t="n" s="673">
         <v>0.0</v>
@@ -5568,7 +5565,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="676">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B76" s="677">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-221215.pdf")</f>
@@ -5597,7 +5594,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="685">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B77" s="686">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223906.pdf")</f>
@@ -5609,10 +5606,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-223906-xstream.xml")</f>
       </c>
       <c r="E77" t="s" s="689">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F77" t="s" s="690">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G77" t="n" s="691">
         <v>1.0</v>
@@ -5626,7 +5623,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="694">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B78" s="695">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223973.pdf")</f>
@@ -5655,7 +5652,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="703">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B79" s="704">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-225252.pdf")</f>
@@ -5670,7 +5667,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="s" s="708">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G79" t="n" s="709">
         <v>0.0</v>
@@ -5684,7 +5681,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="712">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B80" s="713">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226000.pdf")</f>
@@ -5699,7 +5696,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="s" s="717">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G80" t="n" s="718">
         <v>0.0</v>
@@ -5713,7 +5710,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="721">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B81" s="722">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226016.pdf")</f>
@@ -5742,7 +5739,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="730">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B82" s="731">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-228620.pdf")</f>
@@ -5754,10 +5751,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-228620-xstream.xml")</f>
       </c>
       <c r="E82" t="s" s="734">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F82" t="s" s="735">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G82" t="n" s="736">
         <v>1.0</v>
@@ -5771,7 +5768,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="739">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B83" s="740">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-231707.pdf")</f>
@@ -5800,7 +5797,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="748">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B84" s="749">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233317.pdf")</f>
@@ -5812,10 +5809,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-233317-xstream.xml")</f>
       </c>
       <c r="E84" t="s" s="752">
+        <v>146</v>
+      </c>
+      <c r="F84" t="s" s="753">
         <v>147</v>
-      </c>
-      <c r="F84" t="s" s="753">
-        <v>148</v>
       </c>
       <c r="G84" t="n" s="754">
         <v>0.0</v>
@@ -5829,7 +5826,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="757">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B85" s="758">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233657.pdf")</f>
@@ -5841,10 +5838,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-233657-xstream.xml")</f>
       </c>
       <c r="E85" t="s" s="761">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F85" t="s" s="762">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G85" t="n" s="763">
         <v>1.0</v>
@@ -5858,7 +5855,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="766">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B86" s="767">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236063.pdf")</f>
@@ -5887,7 +5884,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="775">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B87" s="776">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236120.pdf")</f>
@@ -5899,10 +5896,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-236120-xstream.xml")</f>
       </c>
       <c r="E87" t="s" s="779">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F87" t="s" s="780">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G87" t="n" s="781">
         <v>1.0</v>
@@ -5916,7 +5913,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="784">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B88" s="785">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-237297.pdf")</f>
@@ -5945,7 +5942,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="793">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B89" s="794">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-240858.pdf")</f>
@@ -5957,10 +5954,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-240858-xstream.xml")</f>
       </c>
       <c r="E89" t="s" s="797">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F89" t="s" s="798">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G89" t="n" s="799">
         <v>1.0</v>
@@ -5974,7 +5971,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="802">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90" s="803">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245336.pdf")</f>
@@ -6003,7 +6000,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="811">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B91" s="812">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245799.pdf")</f>
@@ -6015,10 +6012,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-245799-xstream.xml")</f>
       </c>
       <c r="E91" t="s" s="815">
+        <v>158</v>
+      </c>
+      <c r="F91" t="s" s="816">
         <v>159</v>
-      </c>
-      <c r="F91" t="s" s="816">
-        <v>160</v>
       </c>
       <c r="G91" t="n" s="817">
         <v>0.5</v>
@@ -6032,7 +6029,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="820">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B92" s="821">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247301.pdf")</f>
@@ -6044,10 +6041,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-247301-xstream.xml")</f>
       </c>
       <c r="E92" t="s" s="824">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F92" t="s" s="825">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G92" t="n" s="826">
         <v>1.0</v>
@@ -6061,7 +6058,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="829">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B93" s="830">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247741.pdf")</f>
@@ -6090,7 +6087,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="838">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B94" s="839">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247743.pdf")</f>
@@ -6119,7 +6116,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="847">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B95" s="848">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-251544.pdf")</f>
@@ -6131,10 +6128,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-251544-xstream.xml")</f>
       </c>
       <c r="E95" t="s" s="851">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F95" t="s" s="852">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G95" t="n" s="853">
         <v>1.0</v>
@@ -6148,7 +6145,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="856">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B96" s="857">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-252847.pdf")</f>
@@ -6160,10 +6157,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-252847-xstream.xml")</f>
       </c>
       <c r="E96" t="s" s="860">
+        <v>167</v>
+      </c>
+      <c r="F96" t="s" s="861">
         <v>168</v>
-      </c>
-      <c r="F96" t="s" s="861">
-        <v>169</v>
       </c>
       <c r="G96" t="n" s="862">
         <v>0.83</v>
@@ -6177,7 +6174,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="865">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B97" s="866">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-255712.pdf")</f>
@@ -6206,7 +6203,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="874">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B98" s="875">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-256654.pdf")</f>
@@ -6218,7 +6215,7 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-256654-xstream.xml")</f>
       </c>
       <c r="E98" t="s" s="878">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F98" t="s" s="879">
         <v>7</v>
@@ -6235,7 +6232,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="883">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B99" s="884">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257397.pdf")</f>
@@ -6247,10 +6244,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-257397-xstream.xml")</f>
       </c>
       <c r="E99" t="s" s="887">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F99" t="s" s="888">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G99" t="n" s="889">
         <v>1.0</v>
@@ -6264,7 +6261,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="892">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B100" s="893">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257870.pdf")</f>
@@ -6276,10 +6273,10 @@
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\cermine\cermine-TUW-257870-xstream.xml")</f>
       </c>
       <c r="E100" t="s" s="896">
+        <v>175</v>
+      </c>
+      <c r="F100" t="s" s="897">
         <v>176</v>
-      </c>
-      <c r="F100" t="s" s="897">
-        <v>177</v>
       </c>
       <c r="G100" t="n" s="898">
         <v>1.0</v>
